--- a/data_raw/map_for_compilation_OM15.xlsx
+++ b/data_raw/map_for_compilation_OM15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melo.d/Desktop/Research/Oman_fieldwork/Samail_16S_compilation/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B2FDDA-3D8F-9C4D-9D63-CE38A0645F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F099729C-3AE7-2B41-AC02-6CE0B218686E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="11180" windowWidth="38400" windowHeight="10420" xr2:uid="{8FA938D1-D892-E848-A49F-8DF12B7A5192}"/>
+    <workbookView xWindow="0" yWindow="11180" windowWidth="38400" windowHeight="10420" xr2:uid="{8FA938D1-D892-E848-A49F-8DF12B7A5192}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,57 +101,30 @@
     <t>forward_linker_primer_sequence</t>
   </si>
   <si>
-    <t>WAB55.2015</t>
-  </si>
-  <si>
     <t>AACCGATGTACC</t>
   </si>
   <si>
-    <t>NSHQ4.2015</t>
-  </si>
-  <si>
     <t>AGGAATACTCAC</t>
   </si>
   <si>
-    <t>WAB56.2015</t>
-  </si>
-  <si>
     <t>ACCGATTAGGTA</t>
   </si>
   <si>
-    <t>WAB71.2015</t>
-  </si>
-  <si>
     <t>TGCAACTTGCAG</t>
   </si>
   <si>
-    <t>NSHQ21.2015</t>
-  </si>
-  <si>
     <t>CCGAGTACAATC</t>
   </si>
   <si>
-    <t>NSHQ3B.2015</t>
-  </si>
-  <si>
     <t>TCAAGATCAAGA</t>
   </si>
   <si>
-    <t>WAB103.2015</t>
-  </si>
-  <si>
     <t>CTGTTACAGCGA</t>
   </si>
   <si>
-    <t>WAB188.2015</t>
-  </si>
-  <si>
     <t>AAGTGCTTGGTA</t>
   </si>
   <si>
-    <t>NSHQ14.2015</t>
-  </si>
-  <si>
     <t>AGTTTGCGAGAT</t>
   </si>
   <si>
@@ -216,6 +189,33 @@
   </si>
   <si>
     <t>NSHQ14</t>
+  </si>
+  <si>
+    <t>WAB55_2015</t>
+  </si>
+  <si>
+    <t>NSHQ4_2015</t>
+  </si>
+  <si>
+    <t>WAB56_2015</t>
+  </si>
+  <si>
+    <t>WAB71_2015</t>
+  </si>
+  <si>
+    <t>NSHQ21_2015</t>
+  </si>
+  <si>
+    <t>NSHQ3B_2015</t>
+  </si>
+  <si>
+    <t>WAB103_2015</t>
+  </si>
+  <si>
+    <t>WAB188_2015</t>
+  </si>
+  <si>
+    <t>NSHQ14_2015</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD10"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -704,25 +704,25 @@
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H2" s="6">
         <v>2015</v>
@@ -731,28 +731,28 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K2" s="7">
         <v>18</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R2" s="8">
         <v>102</v>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="V2" s="7">
         <v>5.76</v>
@@ -772,25 +772,25 @@
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6">
         <v>2015</v>
@@ -799,28 +799,28 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K3" s="7">
         <v>22</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R3" s="8">
         <v>304</v>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="V3" s="7">
         <v>5</v>
@@ -840,25 +840,25 @@
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6">
         <v>2016</v>
@@ -873,22 +873,22 @@
         <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="N4" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R4" s="8">
         <v>106</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="V4" s="7">
         <v>6.7</v>
@@ -908,25 +908,25 @@
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="H5" s="6">
         <v>2016</v>
@@ -941,22 +941,22 @@
         <v>50</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="N5" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R5" s="8">
         <v>136.5</v>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="V5" s="7">
         <v>8.1999999999999993</v>
@@ -976,25 +976,25 @@
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H6" s="6">
         <v>2015</v>
@@ -1003,28 +1003,28 @@
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7">
         <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R6" s="8">
         <v>233</v>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="V6" s="7">
         <v>3.33</v>
@@ -1044,25 +1044,25 @@
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H7" s="6">
         <v>2015</v>
@@ -1071,28 +1071,28 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7">
         <v>20</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R7" s="8">
         <v>472</v>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="V7" s="7">
         <v>2.2999999999999998</v>
@@ -1112,25 +1112,25 @@
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H8" s="6">
         <v>2015</v>
@@ -1139,28 +1139,28 @@
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R8" s="8">
         <v>101</v>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V8" s="7">
         <v>15</v>
@@ -1180,25 +1180,25 @@
     </row>
     <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H9" s="6">
         <v>2015</v>
@@ -1207,28 +1207,28 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K9" s="7">
         <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R9" s="8">
         <v>78</v>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V9" s="7">
         <v>9.1999999999999993</v>
@@ -1248,25 +1248,25 @@
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H10" s="6">
         <v>2015</v>
@@ -1275,28 +1275,28 @@
         <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7">
         <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="R10" s="8">
         <v>304</v>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="V10" s="7">
         <v>10</v>
